--- a/Studenti_practica_EB_2020.xlsx
+++ b/Studenti_practica_EB_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alca9460\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\PracticaEB2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8554151-2BDC-4619-8330-82C25874F4C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02470D34-DDAE-44C9-B3F7-CE72D8E79F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6119352-6D95-448C-906F-939439FCB508}"/>
+    <workbookView xWindow="150" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{A6119352-6D95-448C-906F-939439FCB508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Nume si prenume</t>
   </si>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C97C3B-7A8B-4D26-ACAE-C7D65379AAB4}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,10 +585,10 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -607,8 +607,11 @@
       <c r="G1" s="5">
         <v>44032</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="5">
+        <v>44035</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -625,7 +628,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -642,7 +645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -659,7 +662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -675,8 +678,11 @@
       <c r="E5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -693,7 +699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -710,7 +716,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -730,7 +736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -744,7 +750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -761,7 +767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -775,7 +781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -789,7 +795,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -800,7 +806,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -811,7 +817,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>

--- a/Studenti_practica_EB_2020.xlsx
+++ b/Studenti_practica_EB_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\PracticaEB2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02470D34-DDAE-44C9-B3F7-CE72D8E79F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7A1212-5B60-4782-AC1F-CE301C04B2F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="150" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{A6119352-6D95-448C-906F-939439FCB508}"/>
   </bookViews>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C97C3B-7A8B-4D26-ACAE-C7D65379AAB4}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,10 +585,10 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="6" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,8 +610,11 @@
       <c r="H1" s="5">
         <v>44035</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="5">
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -628,7 +631,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -645,7 +648,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -662,7 +665,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -682,7 +685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -699,7 +702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -716,7 +719,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -736,7 +739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -750,7 +753,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -767,7 +770,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -781,7 +784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -795,7 +798,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -806,7 +809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -817,7 +820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>

--- a/Studenti_practica_EB_2020.xlsx
+++ b/Studenti_practica_EB_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\PracticaEB2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7A1212-5B60-4782-AC1F-CE301C04B2F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4443F8A3-66DE-4EF2-B1B6-4BA90309BCFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{A6119352-6D95-448C-906F-939439FCB508}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="12735" xr2:uid="{A6119352-6D95-448C-906F-939439FCB508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Nume si prenume</t>
   </si>
@@ -576,7 +576,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,6 +647,9 @@
       <c r="G3" t="s">
         <v>45</v>
       </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -663,6 +666,9 @@
       </c>
       <c r="E4" t="s">
         <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">

--- a/Studenti_practica_EB_2020.xlsx
+++ b/Studenti_practica_EB_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\PracticaEB2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practica\PracticaEB2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4443F8A3-66DE-4EF2-B1B6-4BA90309BCFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5664ABAB-A311-49A2-B83D-AEFB3F11A2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="12735" xr2:uid="{A6119352-6D95-448C-906F-939439FCB508}"/>
+    <workbookView xWindow="-24885" yWindow="2055" windowWidth="21600" windowHeight="11505" xr2:uid="{A6119352-6D95-448C-906F-939439FCB508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Nume si prenume</t>
   </si>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C97C3B-7A8B-4D26-ACAE-C7D65379AAB4}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,10 +585,10 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="6" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,8 +613,11 @@
       <c r="I1" s="5">
         <v>44039</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="5">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -631,7 +634,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -650,8 +653,11 @@
       <c r="I3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -671,7 +677,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -691,7 +697,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -708,7 +714,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -725,7 +731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -744,8 +750,11 @@
       <c r="G8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -759,7 +768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -776,7 +785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -790,7 +799,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -804,7 +813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -815,7 +824,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -826,7 +835,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>

--- a/Studenti_practica_EB_2020.xlsx
+++ b/Studenti_practica_EB_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practica\PracticaEB2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5664ABAB-A311-49A2-B83D-AEFB3F11A2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D057678-4A0A-4CA6-8039-9BE26B0FBC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24885" yWindow="2055" windowWidth="21600" windowHeight="11505" xr2:uid="{A6119352-6D95-448C-906F-939439FCB508}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15990" xr2:uid="{A6119352-6D95-448C-906F-939439FCB508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
   <si>
     <t>Nume si prenume</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t xml:space="preserve">Absent </t>
+  </si>
+  <si>
+    <t>Nu mai participa</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C97C3B-7A8B-4D26-ACAE-C7D65379AAB4}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,10 +588,10 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="6" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,8 +619,11 @@
       <c r="J1" s="5">
         <v>44042</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="5">
+        <v>44046</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -634,7 +640,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -656,8 +662,11 @@
       <c r="J3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -677,7 +686,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -697,7 +706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -714,7 +723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -731,7 +740,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -754,7 +763,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -768,7 +777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -785,7 +794,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -799,7 +808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -813,7 +822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -823,8 +832,11 @@
       <c r="E13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -835,7 +847,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -850,28 +862,45 @@
       </c>
       <c r="F15" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="mailto:alexandreialx13@gmail.com" xr:uid="{02D89BB9-C6B7-49CF-8DFF-16C68BA90796}"/>
-    <hyperlink ref="B3" r:id="rId2" display="mailto:david_balogh21@yahoo.com" xr:uid="{26666299-2468-448F-B278-DCACB90E068A}"/>
-    <hyperlink ref="B4" r:id="rId3" display="mailto:balaceanucostin@yahoo.com" xr:uid="{E3ECB2FF-4E5F-45D5-829C-16AB87C73686}"/>
-    <hyperlink ref="B5" r:id="rId4" display="mailto:sebastiandimitrieonitiu@gmail.com" xr:uid="{388D409E-49A7-4840-B93D-2290D864EB30}"/>
-    <hyperlink ref="B6" r:id="rId5" display="mailto:valytruewarlock@gmail.com" xr:uid="{EF1AD7D1-6450-419C-8C64-A4FCEFF9D6A9}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{5B34F331-A22B-4120-B975-7258EFF3DCEE}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{E0A099BD-2F7B-48E7-914A-C3781E1EAFC2}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{ACC4287C-7F5D-4B3D-B436-199F6B6E7C01}"/>
-    <hyperlink ref="B10" r:id="rId9" display="mailto:andreigrama14@yahoo.com" xr:uid="{D20F58A4-8C81-4F50-92F7-6AE0C48AF5C3}"/>
-    <hyperlink ref="B14" r:id="rId10" xr:uid="{80328BB5-2546-490D-A86D-BBB983021D10}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{727EC199-53AF-4EB5-9DCB-3384BA94CB79}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{BC6142EA-0111-47B7-855E-CE2BDE2F9F65}"/>
-    <hyperlink ref="B11" r:id="rId13" xr:uid="{B48FFB34-2358-4653-835B-A31B83A049E6}"/>
-    <hyperlink ref="C7" r:id="rId14" xr:uid="{BA112FA8-6E3D-4D01-BCD3-4142C1C37329}"/>
-    <hyperlink ref="C10" r:id="rId15" display="mailto:andreigrama14@yahoo.com" xr:uid="{FDAF2489-D7E8-413E-BA35-87E82D3B37AC}"/>
-    <hyperlink ref="B15" r:id="rId16" xr:uid="{B0B5AC85-C00A-4F14-A3C5-BCD59174B115}"/>
+    <hyperlink ref="B4" r:id="rId2" display="mailto:balaceanucostin@yahoo.com" xr:uid="{E3ECB2FF-4E5F-45D5-829C-16AB87C73686}"/>
+    <hyperlink ref="B5" r:id="rId3" display="mailto:sebastiandimitrieonitiu@gmail.com" xr:uid="{388D409E-49A7-4840-B93D-2290D864EB30}"/>
+    <hyperlink ref="B6" r:id="rId4" display="mailto:valytruewarlock@gmail.com" xr:uid="{EF1AD7D1-6450-419C-8C64-A4FCEFF9D6A9}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{5B34F331-A22B-4120-B975-7258EFF3DCEE}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{E0A099BD-2F7B-48E7-914A-C3781E1EAFC2}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{ACC4287C-7F5D-4B3D-B436-199F6B6E7C01}"/>
+    <hyperlink ref="B10" r:id="rId8" display="mailto:andreigrama14@yahoo.com" xr:uid="{D20F58A4-8C81-4F50-92F7-6AE0C48AF5C3}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{80328BB5-2546-490D-A86D-BBB983021D10}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{727EC199-53AF-4EB5-9DCB-3384BA94CB79}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{BC6142EA-0111-47B7-855E-CE2BDE2F9F65}"/>
+    <hyperlink ref="B11" r:id="rId12" xr:uid="{B48FFB34-2358-4653-835B-A31B83A049E6}"/>
+    <hyperlink ref="C7" r:id="rId13" xr:uid="{BA112FA8-6E3D-4D01-BCD3-4142C1C37329}"/>
+    <hyperlink ref="C10" r:id="rId14" display="mailto:andreigrama14@yahoo.com" xr:uid="{FDAF2489-D7E8-413E-BA35-87E82D3B37AC}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{B0B5AC85-C00A-4F14-A3C5-BCD59174B115}"/>
+    <hyperlink ref="B3" r:id="rId16" display="mailto:david_balogh21@yahoo.com" xr:uid="{26666299-2468-448F-B278-DCACB90E068A}"/>
+    <hyperlink ref="B19" r:id="rId17" display="mailto:david_balogh21@yahoo.com" xr:uid="{7E21682C-D449-4A14-8884-C40CDC4AD228}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/Studenti_practica_EB_2020.xlsx
+++ b/Studenti_practica_EB_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practica\PracticaEB2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\PracticaEB2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D057678-4A0A-4CA6-8039-9BE26B0FBC79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EE7648-D9BD-4635-8263-D1136116BD9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15990" xr2:uid="{A6119352-6D95-448C-906F-939439FCB508}"/>
+    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="12735" xr2:uid="{A6119352-6D95-448C-906F-939439FCB508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C97C3B-7A8B-4D26-ACAE-C7D65379AAB4}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,10 +588,10 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="6" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,8 +622,11 @@
       <c r="K1" s="5">
         <v>44046</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="5">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -640,7 +643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -666,7 +669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -686,7 +689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -706,7 +709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -723,7 +726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -740,7 +743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -763,7 +766,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -777,7 +780,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -794,7 +797,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -808,7 +811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -822,7 +825,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -836,7 +839,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -847,7 +850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>

--- a/Studenti_practica_EB_2020.xlsx
+++ b/Studenti_practica_EB_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORKSPACE\PracticaEB2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EE7648-D9BD-4635-8263-D1136116BD9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4360BD56-F122-4819-8450-6516A4E75208}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29580" yWindow="780" windowWidth="21600" windowHeight="12735" xr2:uid="{A6119352-6D95-448C-906F-939439FCB508}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{A6119352-6D95-448C-906F-939439FCB508}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>Nume si prenume</t>
   </si>
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C97C3B-7A8B-4D26-ACAE-C7D65379AAB4}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,10 +588,10 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="6" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -625,8 +625,17 @@
       <c r="L1" s="5">
         <v>44049</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="5">
+        <v>44053</v>
+      </c>
+      <c r="N1" s="5">
+        <v>44056</v>
+      </c>
+      <c r="O1" s="5">
+        <v>44063</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -643,7 +652,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -668,8 +677,20 @@
       <c r="K3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -689,7 +710,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -709,7 +730,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -726,7 +747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -743,7 +764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -765,8 +786,11 @@
       <c r="J8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -780,7 +804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -797,7 +821,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -810,8 +834,11 @@
       <c r="E11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -824,8 +851,11 @@
       <c r="E12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -839,7 +869,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -850,7 +880,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
